--- a/DOM_Banner/output/dept0713/Joao Paulo Albuquerque Ferreira_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Joao Paulo Albuquerque Ferreira_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Nanjing Lishui High-Tech Industry Investment Co., Ltd., 288 Qinhuai Avenue, Lishui District, Nanjing 211200, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; Department of Intelligent Mechanical Systems Engineering, Kochi University of Technology, 185 Miyanokuchi, Tosayamada-Cho, Kami 782-8502, Japan; Department of Intelligent Mechanical Systems Engineering, Kochi University of Technology, 185 Miyanokuchi, Tosayamada-Cho, Kami 782-8502, Japan; Institute of Superior of Engineering of Coimbra, Quinta da Nora, 3030-199 Coimbra, Portugal; School of Mechatronics Engineering, Harbin Institute of Technology, Harbin 150001, China; Key Laboratory of Rehabilitation Technical Aids Technology and System of the Ministry of Civil Affairs, National Research Center for Rehabilitation Technical Aids, Beijing 100176, China</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210298647</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A Review on the Rehabilitation Exoskeletons for the Lower Limbs of the Elderly and the Disabled</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/electronics11030388</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/electronics11030388</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Intelligent Mechanical Systems Engineering, Kochi University of Technology 185 Miyanokuchi, Tosayamada-cho, Kami-city 782-8502, Japan; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; Key Laboratory of Rehabilitation Technical Aids Technology and System of the Ministry of Civil Affairs, National Research Center for Rehabilitation Technical Aids, Beijing 100176, China; Department of Intelligent Mechanical Systems Engineering, Kochi University of Technology 185 Miyanokuchi, Tosayamada-cho, Kami-city 782-8502, Japan; Zhejiang Fuzhi Science and Technology Innovation Co., Ltd., Hangzhou 310027, China; Institute of Superior of Engineering of Coimbra, Quinta da Nora, 3030-199 Coimbra, Portugal; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; Key Laboratory of Rehabilitation Technical Aids Technology and System of the Ministry of Civil Affairs, National Research Center for Rehabilitation Technical Aids, Beijing 100176, China</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280623799</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Measurement, Evaluation, and Control of Active Intelligent Gait Training Systems—Analysis of the Current State of the Art</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-05-20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/electronics11101633</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/electronics11101633</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Electrical Engineering, Superior Institute of Engineering of Coimbra, Coimbra, Portugal; Department of Electrical Engineering, Superior Institute of Engineering of Coimbra, Coimbra, Portugal; ISR - Department of Electrical and Computer Engineering, University of Coimbra, Coimbra, Portugal; ISR - Department of Electrical and Computer Engineering, University of Coimbra, Coimbra, Portugal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226410730</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Human–Machine Interfaces to NX100 Controller for Motoman HP3L Robot in Educational Environment</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Communications in computer and information science</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-03884-6_3</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-03884-6_3</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; Electrical Engineering Department, Superior Institute of Engineering of Coimbra, 3030-199 Coimbra, Portugal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285800324</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Editorial for the Special Issue on Physical Diagnosis and Rehabilitation Technologies</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-18</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/electronics11142247</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/electronics11142247</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University,Hangzhou,China,310027; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University,Hangzhou,China,310027; Zhejiang Fuzhi Science and Technology Innovation Co., Ltd.,Hangzhou,China,310027; Institute of Superior of Engineering of Coimbra,Coimbra,Portugal,3030-199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378965979</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Virtual Model Control for Dynamic Banlance of a Two Wheeled-legged Robot</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/icosr57188.2022.00016</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/icosr57188.2022.00016</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Joao Paulo Albuquerque Ferreira_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Joao Paulo Albuquerque Ferreira_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -621,32 +621,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>José Ribeiro Ferreira, I. Simões, A. Paulo Coimbra, Manuel Crisóstomo</t>
+          <t>Xiaopeng Huang, Tao Liu, Meimei Han, José Ribeiro Ferreira</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Department of Electrical Engineering, Superior Institute of Engineering of Coimbra, Coimbra, Portugal; Department of Electrical Engineering, Superior Institute of Engineering of Coimbra, Coimbra, Portugal; ISR - Department of Electrical and Computer Engineering, University of Coimbra, Coimbra, Portugal; ISR - Department of Electrical and Computer Engineering, University of Coimbra, Coimbra, Portugal</t>
+          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University,Hangzhou,China,310027; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University,Hangzhou,China,310027; Zhejiang Fuzhi Science and Technology Innovation Co., Ltd.,Hangzhou,China,310027; Institute of Superior of Engineering of Coimbra,Coimbra,Portugal,3030-199</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4226410730</t>
+          <t>https://openalex.org/W4378965979</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Human–Machine Interfaces to NX100 Controller for Motoman HP3L Robot in Educational Environment</t>
+          <t>Virtual Model Control for Dynamic Banlance of a Two Wheeled-legged Robot</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Communications in computer and information science</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-031-03884-6_3</t>
+          <t>https://doi.org/10.1109/icosr57188.2022.00016</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -696,69 +696,69 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-031-03884-6_3</t>
+          <t>https://doi.org/10.1109/icosr57188.2022.00016</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tao Liu, José Ribeiro Ferreira</t>
+          <t>José Ribeiro Ferreira, I. Simões, A. Paulo Coimbra, Manuel Crisóstomo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; Electrical Engineering Department, Superior Institute of Engineering of Coimbra, 3030-199 Coimbra, Portugal</t>
+          <t>Department of Electrical Engineering, Superior Institute of Engineering of Coimbra, Coimbra, Portugal; Department of Electrical Engineering, Superior Institute of Engineering of Coimbra, Coimbra, Portugal; ISR - Department of Electrical and Computer Engineering, University of Coimbra, Coimbra, Portugal; ISR - Department of Electrical and Computer Engineering, University of Coimbra, Coimbra, Portugal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285800324</t>
+          <t>https://openalex.org/W4226410730</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Editorial for the Special Issue on Physical Diagnosis and Rehabilitation Technologies</t>
+          <t>Human–Machine Interfaces to NX100 Controller for Motoman HP3L Robot in Educational Environment</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Communications in computer and information science</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/electronics11142247</t>
+          <t>https://doi.org/10.1007/978-3-031-03884-6_3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -783,69 +783,69 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/electronics11142247</t>
+          <t>https://doi.org/10.1007/978-3-031-03884-6_3</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Xiaopeng Huang, Tao Liu, Meimei Han, José Ribeiro Ferreira</t>
+          <t>Tao Liu, José Ribeiro Ferreira</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University,Hangzhou,China,310027; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University,Hangzhou,China,310027; Zhejiang Fuzhi Science and Technology Innovation Co., Ltd.,Hangzhou,China,310027; Institute of Superior of Engineering of Coimbra,Coimbra,Portugal,3030-199</t>
+          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou 310027, China; Electrical Engineering Department, Superior Institute of Engineering of Coimbra, 3030-199 Coimbra, Portugal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378965979</t>
+          <t>https://openalex.org/W4285800324</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Virtual Model Control for Dynamic Banlance of a Two Wheeled-legged Robot</t>
+          <t>Editorial for the Special Issue on Physical Diagnosis and Rehabilitation Technologies</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icosr57188.2022.00016</t>
+          <t>https://doi.org/10.3390/electronics11142247</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icosr57188.2022.00016</t>
+          <t>https://doi.org/10.3390/electronics11142247</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
